--- a/2020/Requisition/21.01.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/21.01.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E0EF9D-0D29-4971-B98B-4DEDDB0FEE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF4F5D-CAD8-4977-9A81-FAE1CDB40D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
   <si>
     <t>Model Name</t>
   </si>
@@ -1102,10 +1102,10 @@
   <dimension ref="A1:BV108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomRight" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1349,11 +1349,11 @@
         <v>760.9</v>
       </c>
       <c r="C7" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10">
         <f>C7*B7</f>
-        <v>30436</v>
+        <v>15218</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>92</v>
@@ -1720,11 +1720,11 @@
         <v>798.99</v>
       </c>
       <c r="C17" s="8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D17" s="10">
         <f>C17*B17</f>
-        <v>95878.8</v>
+        <v>79899</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>92</v>
@@ -2633,19 +2633,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="9">
         <v>8134.2849999999999</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8">
+        <v>6</v>
+      </c>
       <c r="D45" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="8"/>
+        <v>48805.71</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
@@ -3473,11 +3477,11 @@
         <v>1219.04</v>
       </c>
       <c r="C86" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D86" s="10">
         <f t="shared" ref="D86:D92" si="2">B86*C86</f>
-        <v>158475.19999999998</v>
+        <v>121904</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>82</v>
@@ -3932,11 +3936,11 @@
       <c r="B96" s="45"/>
       <c r="C96" s="16">
         <f>SUBTOTAL(9,C7:C95)</f>
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="D96" s="17">
         <f>SUBTOTAL(9,D7:D95)</f>
-        <v>402784.25</v>
+        <v>383820.95999999996</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="33"/>
